--- a/evaluation/results/camel.xlsx
+++ b/evaluation/results/camel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Desktop/eval_smt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/repository/automatic-error-detection/evaluation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="1060" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="42780" yWindow="-2840" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="camel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>class</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>bug</t>
-  </si>
-  <si>
-    <t>warning</t>
   </si>
   <si>
     <t>err</t>
@@ -80,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -162,20 +159,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="class"/>
     <tableColumn id="2" name="method"/>
     <tableColumn id="3" name="line"/>
     <tableColumn id="4" name="variable"/>
     <tableColumn id="5" name="bug"/>
-    <tableColumn id="6" name="warning"/>
     <tableColumn id="7" name="err"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -445,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +455,7 @@
     <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,11 +474,8 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -496,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -513,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -530,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
